--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -58,6 +58,54 @@
   </si>
   <si>
     <t>truck_used</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>missing_element</t>
+  </si>
+  <si>
+    <t>affected_records</t>
+  </si>
+  <si>
+    <t>route_breakdown</t>
+  </si>
+  <si>
+    <t>Global_DemandPriority</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for AO" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for normal" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Data Loss - 1 deployment plans excluded</t>
+  </si>
+  <si>
+    <t>net demand for AO</t>
+  </si>
+  <si>
+    <t>net demand for normal</t>
+  </si>
+  <si>
+    <t>cross_node: 1</t>
   </si>
 </sst>
 </file>
@@ -520,12 +568,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
@@ -19,26 +19,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+  <si>
+    <t>vehicle_uid</t>
+  </si>
+  <si>
+    <t>ori_deployment_uid</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <t>receiving</t>
+  </si>
+  <si>
+    <t>planned_deployment_date</t>
+  </si>
+  <si>
+    <t>actual_ship_date</t>
+  </si>
+  <si>
+    <t>actual_delivery_date</t>
+  </si>
+  <si>
+    <t>delivery_qty</t>
+  </si>
+  <si>
+    <t>truck_type</t>
+  </si>
+  <si>
+    <t>truck_load_pct</t>
+  </si>
+  <si>
+    <t>WFR</t>
+  </si>
+  <si>
+    <t>VFR</t>
+  </si>
+  <si>
+    <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+  </si>
+  <si>
+    <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+  </si>
+  <si>
+    <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+  </si>
+  <si>
+    <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000057</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000019</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000032</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000058</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000033</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000028</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000054</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000076</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000029</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000055</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000077</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
+  </si>
+  <si>
+    <t>PLANT_001</t>
+  </si>
+  <si>
+    <t>DC_002</t>
+  </si>
+  <si>
+    <t>DC_001</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>sending</t>
-  </si>
-  <si>
-    <t>receiving</t>
-  </si>
-  <si>
-    <t>truck_type</t>
-  </si>
-  <si>
     <t>vehicle_no</t>
   </si>
   <si>
-    <t>vehicle_uid</t>
-  </si>
-  <si>
     <t>total_units</t>
   </si>
   <si>
@@ -48,13 +144,10 @@
     <t>total_volume</t>
   </si>
   <si>
-    <t>WFR</t>
-  </si>
-  <si>
-    <t>VFR</t>
-  </si>
-  <si>
     <t>trigger</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
   <si>
     <t>truck_used</t>
@@ -112,6 +205,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -164,11 +260,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,19 +560,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I5">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I8">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>0.998</v>
+      </c>
+      <c r="L8">
+        <v>0.998</v>
+      </c>
+      <c r="M8">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I9">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>0.998</v>
+      </c>
+      <c r="L9">
+        <v>0.998</v>
+      </c>
+      <c r="M9">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>0.998</v>
+      </c>
+      <c r="L10">
+        <v>0.998</v>
+      </c>
+      <c r="M10">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>0.998</v>
+      </c>
+      <c r="L11">
+        <v>0.998</v>
+      </c>
+      <c r="M11">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I12">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>0.992</v>
+      </c>
+      <c r="L12">
+        <v>0.992</v>
+      </c>
+      <c r="M12">
+        <v>0.9675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I13">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>0.992</v>
+      </c>
+      <c r="L13">
+        <v>0.992</v>
+      </c>
+      <c r="M13">
+        <v>0.9675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I14">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>0.992</v>
+      </c>
+      <c r="L14">
+        <v>0.992</v>
+      </c>
+      <c r="M14">
+        <v>0.9675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.992</v>
+      </c>
+      <c r="L15">
+        <v>0.992</v>
+      </c>
+      <c r="M15">
+        <v>0.9675</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,40 +1196,192 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>99.8</v>
+      </c>
+      <c r="I4">
+        <v>199.5</v>
+      </c>
+      <c r="J4">
+        <v>0.998</v>
+      </c>
+      <c r="K4">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <v>99.2</v>
+      </c>
+      <c r="I5">
+        <v>193.5</v>
+      </c>
+      <c r="J5">
+        <v>0.992</v>
+      </c>
+      <c r="K5">
+        <v>0.9675</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,19 +1399,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -576,74 +1475,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,70 +63,28 @@
     <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
-    <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
-  </si>
-  <si>
-    <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
-  </si>
-  <si>
-    <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000057</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000019</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000032</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000058</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000033</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000028</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000054</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000076</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000029</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000055</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000077</t>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000070</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000071</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000072</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000073</t>
   </si>
   <si>
     <t>MAT_A</t>
   </si>
   <si>
-    <t>MAT_B</t>
-  </si>
-  <si>
     <t>PLANT_001</t>
   </si>
   <si>
     <t>DC_002</t>
   </si>
   <si>
-    <t>DC_001</t>
-  </si>
-  <si>
     <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>LARGE</t>
   </si>
   <si>
     <t>date</t>
@@ -560,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,19 +570,19 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G2" s="2">
         <v>45295</v>
@@ -633,19 +591,19 @@
         <v>45297</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -653,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G3" s="2">
         <v>45295</v>
@@ -674,19 +632,19 @@
         <v>45297</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -694,19 +652,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="G4" s="2">
         <v>45295</v>
@@ -715,39 +673,39 @@
         <v>45297</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="G5" s="2">
         <v>45295</v>
@@ -756,429 +714,19 @@
         <v>45297</v>
       </c>
       <c r="I5">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I6">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I8">
-        <v>39</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8">
-        <v>0.998</v>
-      </c>
-      <c r="L8">
-        <v>0.998</v>
-      </c>
-      <c r="M8">
-        <v>0.9975000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I9">
-        <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9">
-        <v>0.998</v>
-      </c>
-      <c r="L9">
-        <v>0.998</v>
-      </c>
-      <c r="M9">
-        <v>0.9975000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I10">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10">
-        <v>0.998</v>
-      </c>
-      <c r="L10">
-        <v>0.998</v>
-      </c>
-      <c r="M10">
-        <v>0.9975000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11">
-        <v>0.998</v>
-      </c>
-      <c r="L11">
-        <v>0.998</v>
-      </c>
-      <c r="M11">
-        <v>0.9975000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I12">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12">
-        <v>0.992</v>
-      </c>
-      <c r="L12">
-        <v>0.992</v>
-      </c>
-      <c r="M12">
-        <v>0.9675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I13">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13">
-        <v>0.992</v>
-      </c>
-      <c r="L13">
-        <v>0.992</v>
-      </c>
-      <c r="M13">
-        <v>0.9675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H14" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I14">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14">
-        <v>0.992</v>
-      </c>
-      <c r="L14">
-        <v>0.992</v>
-      </c>
-      <c r="M14">
-        <v>0.9675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I15">
-        <v>25</v>
-      </c>
-      <c r="J15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>0.992</v>
-      </c>
-      <c r="L15">
-        <v>0.992</v>
-      </c>
-      <c r="M15">
-        <v>0.9675</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1208,19 +756,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1229,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1237,13 +785,13 @@
         <v>45295</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1252,136 +800,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2">
-        <v>45295</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3">
-        <v>120</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2">
-        <v>45295</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>99.8</v>
-      </c>
-      <c r="I4">
-        <v>199.5</v>
-      </c>
-      <c r="J4">
-        <v>0.998</v>
-      </c>
-      <c r="K4">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>109</v>
-      </c>
-      <c r="H5">
-        <v>99.2</v>
-      </c>
-      <c r="I5">
-        <v>193.5</v>
-      </c>
-      <c r="J5">
-        <v>0.992</v>
-      </c>
-      <c r="K5">
-        <v>0.9675</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +825,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +833,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1411,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1419,33 +853,16 @@
         <v>45295</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>45295</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1475,74 +892,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -60,19 +60,52 @@
     <t>VFR</t>
   </si>
   <si>
+    <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+  </si>
+  <si>
     <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000070</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000071</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000072</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000073</t>
+    <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000069</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000070</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000095</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000071</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000096</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000072</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000097</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000098</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000065</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000041</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000066</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000091</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000042</t>
   </si>
   <si>
     <t>MAT_A</t>
@@ -81,7 +114,13 @@
     <t>PLANT_001</t>
   </si>
   <si>
+    <t>DC_001</t>
+  </si>
+  <si>
     <t>DC_002</t>
+  </si>
+  <si>
+    <t>LARGE</t>
   </si>
   <si>
     <t>MEDIUM</t>
@@ -518,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,19 +609,19 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G2" s="2">
         <v>45295</v>
@@ -591,19 +630,19 @@
         <v>45297</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L2">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="M2">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -611,19 +650,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G3" s="2">
         <v>45295</v>
@@ -632,19 +671,19 @@
         <v>45297</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L3">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="M3">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -652,19 +691,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="G4" s="2">
         <v>45295</v>
@@ -673,19 +712,19 @@
         <v>45297</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L4">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="M4">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -693,19 +732,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G5" s="2">
         <v>45295</v>
@@ -714,19 +753,429 @@
         <v>45297</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>0.84</v>
+      </c>
+      <c r="L5">
+        <v>0.84</v>
+      </c>
+      <c r="M5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>0.84</v>
+      </c>
+      <c r="L6">
+        <v>0.84</v>
+      </c>
+      <c r="M6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="K5">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="L5">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="M5">
-        <v>0.2666666666666667</v>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>0.84</v>
+      </c>
+      <c r="L7">
+        <v>0.84</v>
+      </c>
+      <c r="M7">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>0.84</v>
+      </c>
+      <c r="L8">
+        <v>0.84</v>
+      </c>
+      <c r="M8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>0.84</v>
+      </c>
+      <c r="L9">
+        <v>0.84</v>
+      </c>
+      <c r="M9">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I11">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I15">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,7 +1193,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -756,19 +1205,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -777,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -785,13 +1234,13 @@
         <v>45295</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -800,22 +1249,98 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I2">
+        <v>168</v>
+      </c>
+      <c r="J2">
+        <v>0.84</v>
+      </c>
+      <c r="K2">
+        <v>0.84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="J2">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="K2">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -833,7 +1358,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -845,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -853,16 +1378,33 @@
         <v>45295</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -892,74 +1434,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240104.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -60,52 +60,22 @@
     <t>VFR</t>
   </si>
   <si>
-    <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
-  </si>
-  <si>
     <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
     <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000069</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000070</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000095</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000071</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000096</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000072</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000097</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000098</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000065</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000041</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000066</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000091</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000042</t>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000035</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000013</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000036</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000037</t>
   </si>
   <si>
     <t>MAT_A</t>
@@ -114,13 +84,7 @@
     <t>PLANT_001</t>
   </si>
   <si>
-    <t>DC_001</t>
-  </si>
-  <si>
     <t>DC_002</t>
-  </si>
-  <si>
-    <t>LARGE</t>
   </si>
   <si>
     <t>MEDIUM</t>
@@ -557,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,16 +573,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>45295</v>
@@ -630,19 +594,19 @@
         <v>45297</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K2">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -650,16 +614,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>45296</v>
@@ -671,19 +635,19 @@
         <v>45297</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -691,16 +655,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>45296</v>
@@ -712,39 +676,39 @@
         <v>45297</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G5" s="2">
         <v>45295</v>
@@ -753,36 +717,36 @@
         <v>45297</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>45297</v>
@@ -794,387 +758,18 @@
         <v>45297</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>0.84</v>
-      </c>
-      <c r="L7">
-        <v>0.84</v>
-      </c>
-      <c r="M7">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>0.84</v>
-      </c>
-      <c r="L8">
-        <v>0.84</v>
-      </c>
-      <c r="M8">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45299</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9">
-        <v>0.84</v>
-      </c>
-      <c r="L9">
-        <v>0.84</v>
-      </c>
-      <c r="M9">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I10">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I11">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I12">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H14" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I14">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45295</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I15">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
         <v>1</v>
       </c>
     </row>
@@ -1185,7 +780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1193,7 +788,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1205,19 +800,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1226,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1234,13 +829,13 @@
         <v>45295</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1249,22 +844,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="J2">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1272,16 +867,16 @@
         <v>45295</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1302,45 +897,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2">
-        <v>45295</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>120</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +907,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1358,7 +915,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1370,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1378,32 +935,15 @@
         <v>45295</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>45295</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3">
         <v>2</v>
       </c>
     </row>
@@ -1434,74 +974,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
